--- a/matlab/sri-ipb2-33.xlsx
+++ b/matlab/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>reactor</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>dc</t>
+  </si>
+  <si>
+    <t>q-he-temp_day-01-edited.csv</t>
+  </si>
+  <si>
+    <t>022717</t>
+  </si>
+  <si>
+    <t>q-pulse</t>
   </si>
 </sst>
 </file>
@@ -242,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +429,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -583,13 +598,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -935,7 +952,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1005,51 +1022,92 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
         <v>1</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="6">
         <v>0.9</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="6">
         <v>1.6</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="6">
         <v>187</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C3" s="2"/>
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="M3" s="6">
+        <v>187</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>

--- a/matlab/sri-ipb2-33.xlsx
+++ b/matlab/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>reactor</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>q-pulse</t>
+  </si>
+  <si>
+    <t>030417</t>
+  </si>
+  <si>
+    <t>low voltage</t>
   </si>
 </sst>
 </file>
@@ -952,7 +958,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -969,7 +975,7 @@
     <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1082,13 +1088,13 @@
         <v>26</v>
       </c>
       <c r="F3" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>11</v>
@@ -1110,7 +1116,51 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C4" s="2"/>
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6">
+        <v>37</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="M4" s="6">
+        <v>187</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>

--- a/matlab/sri-ipb2-33.xlsx
+++ b/matlab/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>reactor</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>low voltage</t>
+  </si>
+  <si>
+    <t>030617</t>
+  </si>
+  <si>
+    <t>q-he-lowvolt-36_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -958,7 +964,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1163,20 +1169,51 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6">
+        <v>41</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="M5" s="6">
+        <v>187</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>

--- a/matlab/sri-ipb2-33.xlsx
+++ b/matlab/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>reactor</t>
   </si>
@@ -55,9 +55,6 @@
     <t>gas</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>termRes</t>
   </si>
   <si>
@@ -76,35 +73,92 @@
     <t>021317</t>
   </si>
   <si>
-    <t>dc</t>
-  </si>
-  <si>
     <t>q-he-temp_day-01-edited.csv</t>
   </si>
   <si>
     <t>022717</t>
   </si>
   <si>
-    <t>q-pulse</t>
-  </si>
-  <si>
     <t>030417</t>
   </si>
   <si>
-    <t>low voltage</t>
-  </si>
-  <si>
-    <t>030617</t>
-  </si>
-  <si>
     <t>q-he-lowvolt-36_day-01.csv</t>
+  </si>
+  <si>
+    <t>q-he-70kHz_day-01.csv</t>
+  </si>
+  <si>
+    <t>030917</t>
+  </si>
+  <si>
+    <t>q-he-ex310_day-01.csv</t>
+  </si>
+  <si>
+    <t>031017</t>
+  </si>
+  <si>
+    <t>q-he-ex_day-01.csv</t>
+  </si>
+  <si>
+    <t>022217</t>
+  </si>
+  <si>
+    <t>q-he-ex5_day-01.csv</t>
+  </si>
+  <si>
+    <t>022517</t>
+  </si>
+  <si>
+    <t>q-he-temp-313_day-01.csv</t>
+  </si>
+  <si>
+    <t>031417</t>
+  </si>
+  <si>
+    <t>030217</t>
+  </si>
+  <si>
+    <t>q-he-ex7_day-01.csv</t>
+  </si>
+  <si>
+    <t>sri-ipb2-33b-he-dc-calibration_DKF_calibration_01.mat</t>
+  </si>
+  <si>
+    <t>googleModel</t>
+  </si>
+  <si>
+    <t>032117</t>
+  </si>
+  <si>
+    <t>dc-h2-temp_day-01.csv</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>he-dc</t>
+  </si>
+  <si>
+    <t>h2-dc</t>
+  </si>
+  <si>
+    <t>he-q</t>
+  </si>
+  <si>
+    <t>he-q (low voltage)</t>
+  </si>
+  <si>
+    <t>sri-ipb2-33b-h2-dc-calibration_DKF_calibration_01.mat</t>
+  </si>
+  <si>
+    <t>he-q(coreQpow is off)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,29 +295,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,12 +486,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -610,15 +649,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -669,6 +704,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -964,345 +1002,550 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M2" s="2">
+        <v>187</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M3" s="2">
+        <v>187</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>187</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M5" s="2">
+        <v>187</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M6" s="2">
+        <v>187</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M7" s="2">
+        <v>187</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M8" s="2">
+        <v>187</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M9" s="2">
+        <v>187</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M10" s="2">
+        <v>187</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="K11" s="2">
         <v>0.9</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L11" s="2">
         <v>1.6</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M11" s="2">
         <v>187</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>20</v>
+      <c r="N11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6">
-        <v>26</v>
-      </c>
-      <c r="F3" s="6">
-        <v>28</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="M3" s="6">
-        <v>187</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>23</v>
-      </c>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6">
-        <v>35</v>
-      </c>
-      <c r="F4" s="6">
-        <v>37</v>
-      </c>
-      <c r="G4" s="6">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="M4" s="6">
-        <v>187</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6">
-        <v>39</v>
-      </c>
-      <c r="F5" s="6">
-        <v>41</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="M5" s="6">
-        <v>187</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/sri-ipb2-33.xlsx
+++ b/matlab/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>reactor</t>
   </si>
@@ -152,6 +152,30 @@
   </si>
   <si>
     <t>he-q(coreQpow is off)</t>
+  </si>
+  <si>
+    <t>q-h2-temp324_day-01.csv</t>
+  </si>
+  <si>
+    <t>2017-03-24_SRI_v187-core33b-h2</t>
+  </si>
+  <si>
+    <t>032517</t>
+  </si>
+  <si>
+    <t>h2-q</t>
+  </si>
+  <si>
+    <t>032617</t>
+  </si>
+  <si>
+    <t>q-h2-temp326-600_day-01.csv</t>
+  </si>
+  <si>
+    <t>q-h2-temp328_day-01.csv</t>
+  </si>
+  <si>
+    <t>032817</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="G14" sqref="G14:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1542,10 +1566,145 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M12" s="2">
+        <v>187</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M13" s="2">
+        <v>187</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M14" s="2">
+        <v>187</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/sri-ipb2-33.xlsx
+++ b/matlab/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>reactor</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>032817</t>
+  </si>
+  <si>
+    <t>040317</t>
   </si>
 </sst>
 </file>
@@ -1023,16 +1026,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:O14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="4.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1706,6 +1709,53 @@
         <v>49</v>
       </c>
     </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M15" s="2">
+        <v>187</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/sri-ipb2-33.xlsx
+++ b/matlab/sri-ipb2-33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>reactor</t>
   </si>
@@ -179,13 +179,25 @@
   </si>
   <si>
     <t>040317</t>
+  </si>
+  <si>
+    <t>dc-h2-temp42_day-01.csv</t>
+  </si>
+  <si>
+    <t>041417</t>
+  </si>
+  <si>
+    <t>20kHz_square_wave_day-09.csv</t>
+  </si>
+  <si>
+    <t>square_wave-h2-q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +342,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -676,11 +695,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1026,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1098,50 +1119,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>0.9</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <v>1.6</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>187</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1474,50 +1495,50 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>52</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>53</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>0.9</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
         <v>1.6</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="4">
         <v>187</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1568,50 +1589,50 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>0.9</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="4">
         <v>1.6</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="4">
         <v>187</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1710,50 +1731,97 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="4">
         <v>14</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>16</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="4">
         <v>0.9</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="4">
         <v>1.6</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="4">
         <v>187</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>49</v>
+      <c r="O15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4">
+        <v>28</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M16" s="4">
+        <v>187</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/sri-ipb2-33.xlsx
+++ b/matlab/sri-ipb2-33.xlsx
@@ -190,7 +190,7 @@
     <t>20kHz_square_wave_day-09.csv</t>
   </si>
   <si>
-    <t>square_wave-h2-q</t>
+    <t>h2-q-with updated terminator resistance</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
